--- a/chocolate/Test cases chocolate.xlsx
+++ b/chocolate/Test cases chocolate.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fh-campuswien.local\dfs02\georg.mansky-kummert\Documents\Lehrveranstaltungen\Testing Methoden und Strategien (Mansky-Kummert)\Einheit 3 - Dynamic Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\testing_material\chocolate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD36FA4-56AB-4DA9-8E29-4F261AD54F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2145" windowWidth="29040" windowHeight="18240" xr2:uid="{35477AE6-0E9E-4C2D-8400-83B75147C2F9}"/>
+    <workbookView xWindow="28680" yWindow="-2148" windowWidth="29040" windowHeight="18240"/>
   </bookViews>
   <sheets>
     <sheet name="Specification EP-BVA" sheetId="1" r:id="rId1"/>
     <sheet name="Test cases" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -511,7 +510,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -644,7 +643,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -955,25 +954,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD164C5-E47D-4877-80D1-9158A4C0BCD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="98.1796875" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="98.21875" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -981,7 +980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
@@ -992,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
@@ -1003,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
@@ -1016,7 +1015,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:14" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -1035,7 +1034,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:14" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -1043,13 +1042,13 @@
         <v>29</v>
       </c>
       <c r="F7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +1056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -1068,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>37</v>
       </c>
@@ -1084,7 +1083,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>38</v>
       </c>
@@ -1105,7 +1104,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>39</v>
       </c>
@@ -1122,7 +1121,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="16" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>16</v>
       </c>
@@ -1142,12 +1141,12 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>4</v>
       </c>
@@ -1166,7 +1165,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1177,7 +1176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1191,7 +1190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1203,7 +1202,7 @@
       </c>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1215,7 +1214,7 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1230,7 +1229,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1243,7 +1242,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1256,7 +1255,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1270,7 +1269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1282,7 +1281,7 @@
       </c>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -1294,7 +1293,7 @@
       </c>
       <c r="E28" s="22"/>
     </row>
-    <row r="30" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1301,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1313,7 +1312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -1324,7 +1323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1352,31 +1351,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17F2375-2987-47EB-BEB7-2344C4ABCB67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>52</v>
       </c>
@@ -1393,7 +1392,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -1410,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -1427,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1444,7 +1443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1462,7 +1461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1480,7 +1479,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1498,7 +1497,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1516,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1552,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1570,7 +1569,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1588,7 +1587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1606,7 +1605,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1624,7 +1623,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1642,7 +1641,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1660,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1678,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1714,7 +1713,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>19</v>
       </c>
@@ -1731,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>20</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1762,7 +1761,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1776,7 +1775,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
